--- a/GradeCalculator.xlsx
+++ b/GradeCalculator.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1007364/Projects/ITE140/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7F437D-52A0-BC4C-AEAF-AD14CB9C87E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4C4EB7-C421-2D47-AB13-A0550E905EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{0DEF7F30-4D6D-784E-9D6D-46AF48D0A1A0}"/>
+    <workbookView xWindow="340" yWindow="520" windowWidth="28040" windowHeight="16440" xr2:uid="{0DEF7F30-4D6D-784E-9D6D-46AF48D0A1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Weightings" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculator" sheetId="2" r:id="rId2"/>
-    <sheet name="Results" sheetId="3" r:id="rId3"/>
+    <sheet name="Inputs" sheetId="2" r:id="rId2"/>
+    <sheet name="QuarterTable" sheetId="3" r:id="rId3"/>
+    <sheet name="Results" sheetId="4" r:id="rId4"/>
+    <sheet name="Scenarios" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Letter_Grades">Weightings!$A$1:$D$9</definedName>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
   <si>
     <t>Begin Grade</t>
   </si>
@@ -70,39 +72,15 @@
     <t>D</t>
   </si>
   <si>
-    <t>D+</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>C+</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B+</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Helpful VLOOKUPS</t>
-  </si>
-  <si>
-    <t>Quarter Grade</t>
-  </si>
-  <si>
-    <t>Quarter Letter Grade</t>
-  </si>
-  <si>
-    <t>Quarter Quality Points</t>
-  </si>
-  <si>
-    <t>Quater 1</t>
-  </si>
-  <si>
     <t>Quarter 2</t>
   </si>
   <si>
@@ -136,42 +114,6 @@
     <t>Points Earned</t>
   </si>
   <si>
-    <t>Assignment 1</t>
-  </si>
-  <si>
-    <t>Assignment 2</t>
-  </si>
-  <si>
-    <t>Assignment 3</t>
-  </si>
-  <si>
-    <t>Assignment 4</t>
-  </si>
-  <si>
-    <t>Assignment 5</t>
-  </si>
-  <si>
-    <t>Assignment 6</t>
-  </si>
-  <si>
-    <t>Assignment 7</t>
-  </si>
-  <si>
-    <t>Assignment 8</t>
-  </si>
-  <si>
-    <t>Assignment 9</t>
-  </si>
-  <si>
-    <t>Assignment 10</t>
-  </si>
-  <si>
-    <t>Assignment 11</t>
-  </si>
-  <si>
-    <t>Assignment 12</t>
-  </si>
-  <si>
     <t>Quarter 1 Totals</t>
   </si>
   <si>
@@ -200,13 +142,73 @@
   </si>
   <si>
     <t>Quarter 4 Grade</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Quarter 1</t>
+  </si>
+  <si>
+    <t>Semester 1</t>
+  </si>
+  <si>
+    <t>Semester 2</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Final Exam</t>
+  </si>
+  <si>
+    <t>Year Grade</t>
+  </si>
+  <si>
+    <t>CPE Passed? (1 for yes, 0 for no)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -245,8 +247,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +274,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -274,11 +289,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -288,9 +353,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,6 +451,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BAE7-834C-8103-729BC74FAAA4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -386,6 +471,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BAE7-834C-8103-729BC74FAAA4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -401,6 +491,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BAE7-834C-8103-729BC74FAAA4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -416,6 +511,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BAE7-834C-8103-729BC74FAAA4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -431,10 +531,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BAE7-834C-8103-729BC74FAAA4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>(Results!$A$4,Results!$E$4,Results!$I$4,Results!$M$4,Results!$Q$4)</c:f>
+              <c:f>(QuarterTable!$A$4,QuarterTable!$E$4,QuarterTable!$I$4,QuarterTable!$M$4,QuarterTable!$Q$4)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -457,31 +562,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Results!$A$5,Results!$E$5,Results!$I$5,Results!$M$5,Results!$Q$5)</c:f>
+              <c:f>(QuarterTable!$A$5,QuarterTable!$E$5,QuarterTable!$I$5,QuarterTable!$M$5,QuarterTable!$Q$5)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.96</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1673-5745-88F8-75A323A38863}"/>
+              <c16:uniqueId val="{0000000A-BAE7-834C-8103-729BC74FAAA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1145,25 +1250,27 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1202267</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA18F61C-D4D1-BBEB-7163-49EC29DA01DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4016498-D3ED-A541-BF97-BC97DCFB613A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1175,6 +1282,128 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4965700" cy="2501900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EBE63B-BD5F-F366-91F1-D3E4DD90518D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5118100" y="2336800"/>
+          <a:ext cx="4965700" cy="2501900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>A. Grading Scale: A= 100 - 90 B= 89 - 80 C= 79 - 70 D=69 - 60 F= 59 and below </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>B. Students will receive a weekly cumulative letter grade that will incorporate daily quizzes, tests, projects, and presentations. These weekly evaluations can be challenged by the student, but only during the week immediately following when the evaluation is given. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>C. The average of the weekly evaluations will make up 70% of the final grade, with the course final exam making up 30%.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DFB4EE-8059-D3D5-C086-CE709FD072E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10198100" y="2286000"/>
+          <a:ext cx="6908800" cy="1309282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1503,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF16E00E-BBBB-5B4D-8333-D7C14D73E3BE}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1579,24 +1808,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2">
-        <v>69</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -1606,7 +1823,7 @@
         <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -1615,28 +1832,16 @@
         <v>1.75</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>77</v>
-      </c>
-      <c r="B6" s="2">
-        <v>79</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -1646,7 +1851,7 @@
         <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -1655,28 +1860,16 @@
         <v>2.75</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>87</v>
-      </c>
-      <c r="B8" s="2">
-        <v>89</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -1686,7 +1879,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -1695,65 +1888,16 @@
         <v>3.75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <v>60</v>
-      </c>
-      <c r="F16" t="str">
-        <f>VLOOKUP(E16, Letter_Grades, 3, TRUE)</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19">
-        <f>VLOOKUP(E19, C1:D9, 2, FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="E22">
-        <v>3.74</v>
-      </c>
-      <c r="F22" t="str">
-        <f>VLOOKUP(E22, QPAverageToLetter, 2, TRUE)</f>
-        <v>B+</v>
-      </c>
-    </row>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1761,15 +1905,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2B5A4B-46BA-4703-BD42-2FD5B2F558C1}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
@@ -1788,104 +1932,104 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R3">
         <v>100</v>
@@ -1893,92 +2037,92 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O4">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1987,7 +2131,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -1996,7 +2140,7 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>10</v>
@@ -2007,83 +2151,83 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -2092,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -2101,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -2110,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -2121,7 +2265,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2130,7 +2274,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -2139,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -2148,7 +2292,7 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -2159,155 +2303,222 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O11">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O13">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N14">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O14">
-        <v>50</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="M32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2319,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B75A9D-CF45-3945-92F7-7F5934580095}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2345,147 +2556,147 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2">
-        <f>SUM(Calculator!B:B)</f>
-        <v>240</v>
+        <f>SUM(Inputs!B:B)</f>
+        <v>90</v>
       </c>
       <c r="C2">
-        <f>SUM(Calculator!C:C)</f>
-        <v>250</v>
+        <f>SUM(Inputs!C:C)</f>
+        <v>120</v>
       </c>
       <c r="F2">
-        <f>SUM(Calculator!F:F)</f>
-        <v>240</v>
+        <f>SUM(Inputs!F:F)</f>
+        <v>120</v>
       </c>
       <c r="G2">
-        <f>SUM(Calculator!G:G)</f>
-        <v>250</v>
+        <f>SUM(Inputs!G:G)</f>
+        <v>120</v>
       </c>
       <c r="J2">
-        <f>SUM(Calculator!J:J)</f>
-        <v>200</v>
+        <f>SUM(Inputs!J:J)</f>
+        <v>120</v>
       </c>
       <c r="K2">
-        <f>SUM(Calculator!K:K)</f>
-        <v>250</v>
+        <f>SUM(Inputs!K:K)</f>
+        <v>120</v>
       </c>
       <c r="N2">
-        <f>SUM(Calculator!N:N)</f>
-        <v>250</v>
+        <f>SUM(Inputs!N:N)</f>
+        <v>120</v>
       </c>
       <c r="O2">
-        <f>SUM(Calculator!O:O)</f>
-        <v>250</v>
+        <f>SUM(Inputs!O:O)</f>
+        <v>120</v>
       </c>
       <c r="R2">
-        <f>SUM(Calculator!Q:Q)</f>
-        <v>50</v>
+        <f>SUM(Inputs!Q:Q)</f>
+        <v>100</v>
       </c>
       <c r="S2">
-        <f>SUM(Calculator!R:R)</f>
+        <f>SUM(Inputs!R:R)</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <f>SUM(B2/C2)</f>
-        <v>0.96</v>
+        <f>IF(Inputs!A17=1,SUM(1/1),SUM(B2/C2))</f>
+        <v>1</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(A5*100, Letter_Grades, 3, TRUE)</f>
@@ -2497,7 +2708,7 @@
       </c>
       <c r="E5" s="5">
         <f>SUM(F2/G2)</f>
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
         <f>VLOOKUP(E5*100, Letter_Grades, 3, TRUE)</f>
@@ -2509,15 +2720,15 @@
       </c>
       <c r="I5" s="5">
         <f>SUM(J2/K2)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J5" t="str">
         <f>VLOOKUP(I5*100, Letter_Grades, 3, TRUE)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="K5">
         <f>VLOOKUP(J5, LetterToQP, 2, FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="5">
         <f>SUM(N2/O2)</f>
@@ -2533,15 +2744,15 @@
       </c>
       <c r="Q5" s="5">
         <f>SUM(R2/S2)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R5" t="str">
-        <f>VLOOKUP(Calculator!Q3, Letter_Grades, 3, TRUE)</f>
-        <v>E</v>
+        <f>VLOOKUP(Inputs!Q3, Letter_Grades, 3, TRUE)</f>
+        <v>A</v>
       </c>
       <c r="S5">
         <f>VLOOKUP(R5, LetterToQP, 2, FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -2549,32 +2760,375 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7">
-        <f>SUM(Calculator!N:N)</f>
-        <v>250</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>SUM((C5+G5+K5+O5+S5)/5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(A8, QPAverageToLetter, 2, TRUE)</f>
-        <v>B</v>
-      </c>
-      <c r="D8" s="5">
+        <v>A</v>
+      </c>
+      <c r="C8" s="5">
         <f>SUM(1-A5+1-E5+1-I5+1-M5+1-Q5)</f>
-        <v>0.78</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60EF877-6360-2842-B668-0C66C63D0D48}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11">
+        <f>IF(Inputs!A17=1,SUM(1/1),SUM(QuarterTable!B2/QuarterTable!C2))</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <f>VLOOKUP(D2, LetterToQP, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>VLOOKUP(B2*100, Letter_Grades, 3, TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11">
+        <f>SUM(QuarterTable!F2/QuarterTable!G2)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <f>VLOOKUP(D3, LetterToQP, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f>VLOOKUP(B3*100, Letter_Grades, 3, TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11">
+        <f>SUM(QuarterTable!J2/QuarterTable!K2)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <f>VLOOKUP(D4, LetterToQP, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f>VLOOKUP(B4*100, Letter_Grades, 3, TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13">
+        <f>SUM(QuarterTable!N2/QuarterTable!O2)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <f>VLOOKUP(D5, LetterToQP, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="16" t="str">
+        <f>VLOOKUP(B5*100, Letter_Grades, 3, TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="17">
+        <f>(B2+B3)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11">
+        <f>(B4+B5)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="20">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="13">
+        <f>QuarterTable!R2/QuarterTable!S2</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <f>VLOOKUP(D8, LetterToQP, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="16" t="str">
+        <f>VLOOKUP(B8*100, Letter_Grades, 3, TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="9">
+        <f>((((B6+B7)/2)*0.7)+(B8*0.3))</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <f>SUM((C2+C3+C4+C5+C8)/5)</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>VLOOKUP(C9, QPAverageToLetter, 2, TRUE)</f>
+        <v>A</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C682C864-651A-7945-B987-493A80BC6761}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <f>VLOOKUP(D2, LetterToQP, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>VLOOKUP(B2*100, Letter_Grades, 3, TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <f>VLOOKUP(D3, LetterToQP, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f>VLOOKUP(B3*100, Letter_Grades, 3, TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <f>VLOOKUP(D4, LetterToQP, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f>VLOOKUP(B4*100, Letter_Grades, 3, TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <f>VLOOKUP(D5, LetterToQP, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="16" t="str">
+        <f>VLOOKUP(B5*100, Letter_Grades, 3, TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="17">
+        <f>(B2+B3)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11">
+        <f>(B4+B5)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="20">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <f>VLOOKUP(D8, LetterToQP, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="16" t="str">
+        <f>VLOOKUP(B8*100, Letter_Grades, 3, TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="9">
+        <f>((((B6+B7)/2)*0.7)+(B8*0.3))</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <f>SUM((C2+C3+C4+C5+C8)/5)</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>VLOOKUP(C9, QPAverageToLetter, 2, TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+  </sheetData>
+  <scenarios current="0" show="3">
+    <scenario name="Bad Q1" locked="1" count="5" user="Burkholder, Joseph" comment="Created by Burkholder, Joseph on 9/13/2024_x000a_Modified by Burkholder, Joseph on 9/13/2024">
+      <inputCells r="B2" val="0.5"/>
+      <inputCells r="B3" val="1" numFmtId="9"/>
+      <inputCells r="B4" val="1" numFmtId="9"/>
+      <inputCells r="B5" val="1" numFmtId="9"/>
+      <inputCells r="B8" val="1" numFmtId="9"/>
+    </scenario>
+    <scenario name="Half Bs Half As" locked="1" count="5" user="Burkholder, Joseph" comment="Created by Burkholder, Joseph on 9/13/2024_x000a_Modified by Burkholder, Joseph on 9/13/2024">
+      <inputCells r="B2" val="0.8" numFmtId="9"/>
+      <inputCells r="B3" val="0.9"/>
+      <inputCells r="B4" val="0.8"/>
+      <inputCells r="B5" val="0.9"/>
+      <inputCells r="B8" val="1" numFmtId="9"/>
+    </scenario>
+    <scenario name="Straight As but failed final" locked="1" count="5" user="Burkholder, Joseph" comment="Created by Burkholder, Joseph on 9/13/2024">
+      <inputCells r="B2" val="1" numFmtId="9"/>
+      <inputCells r="B3" val="1" numFmtId="9"/>
+      <inputCells r="B4" val="1" numFmtId="9"/>
+      <inputCells r="B5" val="1" numFmtId="9"/>
+      <inputCells r="B8" val="0.5"/>
+    </scenario>
+    <scenario name="Straight As" locked="1" count="5" user="Burkholder, Joseph" comment="Created by Burkholder, Joseph on 9/13/2024">
+      <inputCells r="B2" val="1" numFmtId="9"/>
+      <inputCells r="B3" val="1" numFmtId="9"/>
+      <inputCells r="B4" val="1" numFmtId="9"/>
+      <inputCells r="B5" val="1" numFmtId="9"/>
+      <inputCells r="B8" val="1" numFmtId="9"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>